--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - 株式会社SEプラス\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA7AE5A3-1776-4D93-B45A-0FD1209D8F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0001D-BFA9-4D47-9F5B-C7700D17ED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -188,13 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者Ａ</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当者C</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -202,13 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者B</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_id.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -632,6 +618,84 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤岡　大門</t>
+    <rPh sb="0" eb="3">
+      <t>カトウオカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダイモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下村</t>
+    <rPh sb="0" eb="2">
+      <t>シモムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　綿貫</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワタヌキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create_IdServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create_profileServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成画面用</t>
+    <rPh sb="0" eb="7">
+      <t>シンキサクセイガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面用</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　綿貫</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像関連保存場所</t>
+    <rPh sb="0" eb="8">
+      <t>ガゾウカンレンホゾンバショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1027,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1080,14 +1144,11 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B38" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1095,20 +1156,17 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1116,16 +1174,18 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6:B41" si="0">ROW()-2</f>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1135,12 +1195,14 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1154,12 +1216,14 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1173,12 +1237,14 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1192,12 +1258,14 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1211,12 +1279,14 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1230,12 +1300,14 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1249,12 +1321,14 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1268,12 +1342,14 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1284,16 +1360,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1305,15 +1381,17 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1327,12 +1405,14 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1343,16 +1423,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1364,16 +1444,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1388,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1409,13 +1489,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1424,19 +1504,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1445,18 +1525,20 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1470,12 +1552,14 @@
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1489,12 +1573,14 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1508,12 +1594,14 @@
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1527,12 +1615,14 @@
         <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1546,12 +1636,14 @@
         <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1565,12 +1657,14 @@
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1584,12 +1678,14 @@
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1603,12 +1699,14 @@
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1622,12 +1720,14 @@
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -1641,12 +1741,14 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1660,12 +1762,14 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -1679,12 +1783,14 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -1698,12 +1804,14 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -1717,12 +1825,14 @@
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -1730,19 +1840,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1751,19 +1861,79 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>28</v>
+      <c r="G41" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1945,18 +2115,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1979,6 +2149,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1993,12 +2171,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0001D-BFA9-4D47-9F5B-C7700D17ED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70BB012-19C6-4677-95B4-080060F52A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1201,7 +1201,7 @@
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1621,7 +1621,7 @@
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1944,6 +1944,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2114,15 +2123,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2130,6 +2130,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2144,14 +2152,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70BB012-19C6-4677-95B4-080060F52A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA7D1F3-73BB-455F-B6F9-0366D0DE6DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -188,13 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者C</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_id.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,10 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Question_listServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Question_ResponseServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -696,6 +685,53 @@
     <t>画像関連保存場所</t>
     <rPh sb="0" eb="8">
       <t>ガゾウカンレンホゾンバショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question_ListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IdpwDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードのデータアクセス用DAO</t>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページャー専用css</t>
+    <rPh sb="5" eb="7">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綿貫</t>
+    <rPh sb="0" eb="2">
+      <t>ワタヌキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1091,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1144,11 +1180,14 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1156,17 +1195,20 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B6" si="0">ROW()-2</f>
+        <v>3</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1174,18 +1216,18 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B41" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1195,18 +1237,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7:B44" si="1">ROW()-2</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1216,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>89</v>
@@ -1227,7 +1269,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1237,18 +1279,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1258,18 +1300,18 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1279,18 +1321,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1300,18 +1342,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1321,18 +1363,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1345,15 +1387,15 @@
         <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1363,18 +1405,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1384,39 +1426,39 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1426,18 +1468,18 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1447,60 +1489,60 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1510,18 +1552,18 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1531,60 +1573,60 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1594,18 +1636,18 @@
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1615,18 +1657,18 @@
         <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1636,18 +1678,18 @@
         <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1657,10 +1699,10 @@
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>89</v>
@@ -1668,7 +1710,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1678,18 +1720,18 @@
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1699,18 +1741,18 @@
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1720,18 +1762,18 @@
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1741,18 +1783,18 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1762,18 +1804,18 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1783,18 +1825,18 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1804,18 +1846,18 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1825,18 +1867,18 @@
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1846,18 +1888,18 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1867,74 +1909,134 @@
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="G44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1944,12 +2046,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2124,15 +2223,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2157,18 +2268,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA7D1F3-73BB-455F-B6F9-0366D0DE6DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CF341-F737-4D18-B187-2D0400EB8874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="8970" yWindow="15" windowWidth="11535" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,10 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Create_profileServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規作成画面用</t>
     <rPh sb="0" eb="7">
       <t>シンキサクセイガメンヨウ</t>
@@ -733,6 +729,10 @@
     <rPh sb="0" eb="2">
       <t>ワタヌキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create_ProfileServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1130,7 +1130,7 @@
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1195,13 +1195,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1219,7 +1219,7 @@
         <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>87</v>
@@ -1237,10 +1237,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>87</v>
@@ -1369,7 +1369,7 @@
         <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1390,7 +1390,7 @@
         <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1411,7 +1411,7 @@
         <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1426,13 +1426,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1453,7 +1453,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1531,10 +1531,10 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>88</v>
@@ -1966,16 +1966,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>89</v>
@@ -2013,10 +2013,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2046,9 +2046,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2223,27 +2226,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2268,9 +2259,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CF341-F737-4D18-B187-2D0400EB8874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192BD9FF-F6A9-4133-B52C-0FE1EE6AFB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="15" windowWidth="11535" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-135" yWindow="30" windowWidth="11535" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,13 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq確認画面jsp</t>
-    <rPh sb="3" eb="7">
-      <t>カクニンガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq_list.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -393,13 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq一覧画面用</t>
-    <rPh sb="3" eb="8">
-      <t>イチランガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問記入画面用</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -733,6 +719,29 @@
   </si>
   <si>
     <t>Create_ProfileServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq画面jsp（受講者）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq画面用（受講者）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジュコウシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1129,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1180,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1195,13 +1204,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1216,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1237,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1258,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1279,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1300,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1321,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1342,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1363,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1384,13 +1393,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1405,13 +1414,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1426,13 +1435,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1447,13 +1456,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1468,13 +1477,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1489,13 +1498,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1510,13 +1519,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1531,13 +1540,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1558,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1573,13 +1582,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1594,13 +1603,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1615,13 +1624,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1642,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1663,7 +1672,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1684,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1705,7 +1714,7 @@
         <v>32</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1726,7 +1735,7 @@
         <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1741,13 +1750,13 @@
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1762,13 +1771,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1783,13 +1792,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1804,13 +1813,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1825,13 +1834,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1846,13 +1855,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1867,13 +1876,13 @@
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1888,13 +1897,13 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1909,13 +1918,13 @@
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1930,13 +1939,13 @@
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1951,13 +1960,13 @@
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1966,19 +1975,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2013,10 +2022,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2046,12 +2055,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2226,15 +2232,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2259,18 +2277,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192BD9FF-F6A9-4133-B52C-0FE1EE6AFB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663341FB-A53C-4FE5-A560-FC64CF1369A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="30" windowWidth="11535" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="8955" yWindow="30" windowWidth="11535" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,53 +206,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィール記入画面jsp</t>
-    <rPh sb="6" eb="10">
-      <t>キニュウガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>menu_student.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受講者のメニュー画面jsp</t>
-    <rPh sb="0" eb="3">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>profile.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィール確認画面jsp</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq_list.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>question_fillin.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問記入画面jsp</t>
-    <rPh sb="0" eb="6">
-      <t>シツモンキニュウガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -277,69 +243,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>講師のメニュー画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq_regist.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq登録画面jsp</t>
-    <rPh sb="3" eb="7">
-      <t>トウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq_edit.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq編集削除画面jsp</t>
-    <rPh sb="3" eb="7">
-      <t>ヘンシュウサクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>question_list.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>question_response.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問一覧画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問回答記入画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="8">
-      <t>カイトウキニュウガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -386,16 +302,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問記入画面用</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="7">
-      <t>キニュウガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問回答画面用</t>
     <rPh sb="0" eb="4">
       <t>シツモンカイトウ</t>
@@ -410,16 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィール一覧画面用</t>
-    <rPh sb="6" eb="10">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Faq_EditServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -432,55 +328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq登録画面用</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faq編集画面用</t>
-    <rPh sb="3" eb="7">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問一覧画面用</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問回答記入画面用</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="8">
-      <t>カイトウキニュウガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>header_student.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,36 +337,6 @@
   </si>
   <si>
     <t>footer.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講者用ヘッダー画面jsp</t>
-    <rPh sb="0" eb="4">
-      <t>ジュコウシャヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講師用ヘッダー画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フッター画面jsp</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -628,13 +445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規作成画面用</t>
-    <rPh sb="0" eb="7">
-      <t>シンキサクセイガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール画面用</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -742,6 +552,235 @@
     <rPh sb="7" eb="10">
       <t>ジュコウシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq登録画面用（講師）</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq編集画面用（講師）</t>
+    <rPh sb="3" eb="7">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問記入画面用（受講者）</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>キニュウガメンヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問一覧画面用（講師）</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答記入画面用（講師）</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="8">
+      <t>カイトウキニュウガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回プロフィール記入画面jsp</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回プロフィール記入画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者メニュー画面jsp</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師メニュー画面jsp</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面jsp</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq登録画面jsp（講師）</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq編集画面jsp（講師）</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問記入画面jsp（受講者）</t>
+    <rPh sb="0" eb="6">
+      <t>シツモンキニュウガメン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問一覧画面jsp（講師）</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答記入画面jsp（講師）</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="8">
+      <t>カイトウキニュウガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者用ヘッダーjsp</t>
+    <rPh sb="0" eb="4">
+      <t>ジュコウシャヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師用ヘッダーjsp</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フッターjsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1138,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1189,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1204,13 +1243,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1225,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1246,13 +1285,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1267,13 +1306,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1288,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1309,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1330,13 +1369,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1351,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1372,13 +1411,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1393,13 +1432,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1414,13 +1453,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1435,13 +1474,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1456,13 +1495,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1477,13 +1516,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1498,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1519,13 +1558,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1540,13 +1579,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1567,7 +1606,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1582,13 +1621,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1603,13 +1642,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1624,13 +1663,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1651,7 +1690,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1672,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1690,10 +1729,10 @@
         <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1708,13 +1747,13 @@
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1729,13 +1768,13 @@
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1750,13 +1789,13 @@
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1771,13 +1810,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1792,13 +1831,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1813,13 +1852,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1834,13 +1873,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1855,13 +1894,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1876,13 +1915,13 @@
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1897,13 +1936,13 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1918,13 +1957,13 @@
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1939,13 +1978,13 @@
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1960,13 +1999,13 @@
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1975,19 +2014,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2022,10 +2061,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2055,9 +2094,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2232,27 +2274,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2277,9 +2307,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663341FB-A53C-4FE5-A560-FC64CF1369A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33C7C02-9604-454A-932B-6FE9C0A869E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="30" windowWidth="11535" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="3105" yWindow="0" windowWidth="17385" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -496,20 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページャー専用css</t>
-    <rPh sb="5" eb="7">
-      <t>センヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡田</t>
-    <rPh sb="0" eb="2">
-      <t>オカダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LogoutServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -521,13 +507,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>綿貫</t>
-    <rPh sb="0" eb="2">
-      <t>ワタヌキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Create_ProfileServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -781,6 +760,130 @@
   </si>
   <si>
     <t>フッターjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者一覧画面jsp</t>
+    <rPh sb="0" eb="5">
+      <t>ジュコウシャイチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header_footer.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile2.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_list.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーとフッター用css</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用css</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面用css</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面用css</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問一覧画面用css</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者一覧画面用css</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All_QuestionDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　綿貫</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1175,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1243,13 +1346,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1267,7 +1370,7 @@
         <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>67</v>
@@ -1285,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>67</v>
@@ -1296,7 +1399,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B44" si="1">ROW()-2</f>
+        <f t="shared" ref="B7:B56" si="1">ROW()-2</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1330,7 +1433,7 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>67</v>
@@ -1351,7 +1454,7 @@
         <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>67</v>
@@ -1435,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>72</v>
@@ -1456,7 +1559,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>72</v>
@@ -1477,7 +1580,7 @@
         <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>72</v>
@@ -1498,7 +1601,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>72</v>
@@ -1663,11 +1766,9 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1678,19 +1779,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1699,19 +1800,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1720,19 +1819,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1741,19 +1838,17 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1762,19 +1857,17 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1789,10 +1882,10 @@
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>67</v>
@@ -1810,10 +1903,10 @@
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>67</v>
@@ -1831,10 +1924,10 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>67</v>
@@ -1852,10 +1945,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>69</v>
@@ -1873,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1894,13 +1987,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1915,13 +2008,13 @@
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1936,13 +2029,13 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1957,10 +2050,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>69</v>
@@ -1978,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>69</v>
@@ -1999,10 +2092,10 @@
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>69</v>
@@ -2014,16 +2107,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>69</v>
@@ -2035,18 +2128,20 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
@@ -2054,17 +2149,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2073,18 +2170,268 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="1">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2094,12 +2441,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2274,15 +2618,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2307,18 +2663,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33C7C02-9604-454A-932B-6FE9C0A869E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765917FF-4741-4B45-8D1E-3C5B6392DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="0" windowWidth="17385" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="15810" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -105,38 +101,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User関連のデータアクセス用DAO</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WebContent/WEB-INF/jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面jsp</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -192,70 +157,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録画面jsp</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_profile.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>menu_student.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profile.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faq_list.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question_fillin.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問回答画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>menu_teacher.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question_answer.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faq_regist.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faq_edit.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question_list.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question_response.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -328,36 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>header_student.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>header_teacher.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>footer.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ProfileDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講者のプロフィールデータアクセス用DAO</t>
-    <rPh sb="0" eb="3">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>All_QuestionDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -372,25 +244,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Profile.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>All_Question.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LoginUser.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィール関連のデータ操作モデル</t>
-    <rPh sb="6" eb="8">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウサ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -404,16 +258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>加藤岡　大門</t>
     <rPh sb="0" eb="3">
       <t>カトウオカ</t>
@@ -485,17 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IdpwDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとパスワードのデータアクセス用DAO</t>
-    <rPh sb="16" eb="17">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LogoutServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -511,16 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq画面jsp（受講者）</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq画面用（受講者）</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -624,274 +447,349 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>初回プロフィール記入画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header_footer.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile2.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_list.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーとフッター用css</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用css</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面用css</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面用css</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問一覧画面用css</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者一覧画面用css</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All_QuestionDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　綿貫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Student_ListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　綿貫</t>
+  </si>
+  <si>
+    <t>LoginDao.java</t>
+  </si>
+  <si>
+    <t>UserAll_QuestionDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserProfileDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserAll_Question.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserProfile.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name.java</t>
+  </si>
+  <si>
+    <t>UserAll_QuestionDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserProfileDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+  </si>
+  <si>
+    <t>新規登録画面jsp</t>
+    <rPh sb="0" eb="6">
+      <t>シンキトウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤岡　大門</t>
+  </si>
+  <si>
     <t>初回プロフィール記入画面jsp</t>
     <rPh sb="0" eb="2">
       <t>ショカイ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>キニュウ</t>
-    </rPh>
+    <rPh sb="8" eb="12">
+      <t>キニュウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_edit.jsp</t>
+  </si>
+  <si>
+    <t>faq編集画面jsp（講師）</t>
+  </si>
+  <si>
+    <t>faq_list.jsp</t>
+  </si>
+  <si>
+    <t>faq画面jsp（受講者）</t>
+  </si>
+  <si>
+    <t>faq_list2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_regist.jsp</t>
+  </si>
+  <si>
+    <t>faq登録画面jsp（講師）</t>
+  </si>
+  <si>
+    <t>footer.jsp</t>
+  </si>
+  <si>
+    <t>フッターjsp</t>
+  </si>
+  <si>
+    <t>header_student.jsp</t>
+  </si>
+  <si>
+    <t>header_teacher.jsp</t>
+  </si>
+  <si>
+    <t>受講者用ヘッダーjsp</t>
+  </si>
+  <si>
+    <t>講師用ヘッダーjsp</t>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>ログイン画面jsp</t>
+  </si>
+  <si>
+    <t>menu_student.jsp</t>
+  </si>
+  <si>
+    <t>menu_teacher.jsp</t>
+  </si>
+  <si>
+    <t>受講者メニュー画面jsp</t>
+  </si>
+  <si>
+    <t>講師メニュー画面jsp</t>
+  </si>
+  <si>
+    <t>profile.jsp</t>
+  </si>
+  <si>
+    <t>プロフィール画面jsp</t>
+  </si>
+  <si>
+    <t>profile2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_answer.jsp</t>
+  </si>
+  <si>
+    <t>質問回答画面jsp</t>
+  </si>
+  <si>
+    <t>question_fillin.jsp</t>
+  </si>
+  <si>
+    <t>質問記入画面jsp（受講者）</t>
+  </si>
+  <si>
+    <t>question_list.jsp</t>
+  </si>
+  <si>
+    <t>question_list2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問一覧画面(クラス選択)jsp（講師）</t>
     <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回プロフィール記入画面用</t>
-    <rPh sb="0" eb="2">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講者メニュー画面jsp</t>
-    <rPh sb="0" eb="3">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講師メニュー画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィール画面jsp</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faq登録画面jsp（講師）</t>
-    <rPh sb="3" eb="7">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faq編集画面jsp（講師）</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問記入画面jsp（受講者）</t>
-    <rPh sb="0" eb="6">
-      <t>シツモンキニュウガメン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問一覧画面jsp（講師）</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問一覧画面(一覧表示)jsp（講師）</t>
+    <rPh sb="7" eb="11">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_response.jsp</t>
   </si>
   <si>
     <t>質問回答記入画面jsp（講師）</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="8">
-      <t>カイトウキニュウガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講者用ヘッダーjsp</t>
-    <rPh sb="0" eb="4">
-      <t>ジュコウシャヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講師用ヘッダーjsp</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フッターjsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Result.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講者一覧画面jsp</t>
-    <rPh sb="0" eb="5">
-      <t>ジュコウシャイチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>header_footer.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>menu.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profile.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profile2.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question_list.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヘッダーとフッター用css</t>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面用css</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面用css</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィール画面用css</t>
-    <rPh sb="6" eb="9">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問一覧画面用css</t>
-    <rPh sb="0" eb="4">
-      <t>シツモンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講者一覧画面用css</t>
-    <rPh sb="0" eb="3">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>All_QuestionDaoTest.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LoginDaoTest.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ProfileDaoTest.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserDaoTest.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡田　綿貫</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student_list1.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student_list2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileDao.java</t>
+  </si>
+  <si>
+    <t>受講者のプロフィールデータアクセス用DAO</t>
+  </si>
+  <si>
+    <t>UserDao.java</t>
+  </si>
+  <si>
+    <t>User関連のデータアクセス用DAO</t>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
+  </si>
+  <si>
+    <t>ログイン関連のデータ操作モデル</t>
+  </si>
+  <si>
+    <t>Profile.java</t>
+  </si>
+  <si>
+    <t>プロフィール関連のデータ操作モデル</t>
+  </si>
+  <si>
+    <t>User.java</t>
+  </si>
+  <si>
+    <t>User関連のデータ操作モデル</t>
+  </si>
+  <si>
+    <t>Student_ListServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師側の生徒リスト用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +804,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -951,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +866,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G56"/>
+  <dimension ref="B2:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1328,10 +1235,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1346,13 +1253,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1367,13 +1274,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1388,18 +1295,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B56" si="1">ROW()-2</f>
+        <f t="shared" ref="B7:B69" si="1">ROW()-2</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1409,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1430,13 +1337,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1451,13 +1358,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1472,13 +1379,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1493,13 +1400,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1514,20 +1421,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1535,13 +1437,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>140</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1556,13 +1458,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1577,13 +1479,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1598,13 +1500,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1616,16 +1518,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1637,16 +1539,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1661,13 +1563,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1682,13 +1584,11 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1700,16 +1600,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1721,16 +1621,14 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1742,16 +1640,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1763,14 +1661,14 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1785,13 +1683,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1803,14 +1701,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1822,14 +1722,14 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1841,14 +1741,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1860,14 +1762,14 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1876,19 +1778,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1897,19 +1799,17 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1918,19 +1818,17 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1939,19 +1837,17 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1960,19 +1856,17 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1981,19 +1875,17 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -2002,19 +1894,17 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -2023,19 +1913,17 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -2044,19 +1932,17 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -2065,19 +1951,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -2086,19 +1972,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2107,19 +1993,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2128,19 +2014,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2149,19 +2035,17 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2170,19 +2054,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2191,19 +2075,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2212,19 +2096,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2233,19 +2117,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2254,18 +2138,20 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
@@ -2273,19 +2159,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2294,19 +2180,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2315,19 +2201,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2336,20 +2222,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2357,19 +2239,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2378,19 +2260,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2399,19 +2281,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2420,18 +2302,285 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="1"/>
+      <c r="G69" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2441,9 +2590,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2618,27 +2770,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2663,9 +2803,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765917FF-4741-4B45-8D1E-3C5B6392DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA146E6-E10F-4716-A9E1-CE3E46B6E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="15810" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="8490" yWindow="0" windowWidth="12015" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="148">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -782,7 +782,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>question_up.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問投稿完了画面jsp（受講者）</t>
+  </si>
+  <si>
+    <t>加藤岡　大門</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_answer.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question_UpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問投稿完了画面用（受講者）</t>
+  </si>
+  <si>
     <t>講師側の生徒リスト用</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -808,8 +831,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1185,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G69"/>
+  <dimension ref="B2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1306,7 +1331,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B69" si="1">ROW()-2</f>
+        <f t="shared" ref="B7:B72" si="1">ROW()-2</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1440,7 +1465,7 @@
         <v>140</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>83</v>
@@ -1552,24 +1577,17 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1584,9 +1602,11 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1603,11 +1623,9 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1624,9 +1642,11 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1643,11 +1663,9 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1664,9 +1682,11 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1680,14 +1700,12 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1704,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>41</v>
@@ -1725,9 +1743,11 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1744,11 +1764,9 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,9 +1783,11 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1784,11 +1804,9 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1805,9 +1823,11 @@
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1824,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
@@ -1840,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -1862,7 +1882,7 @@
         <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -1881,7 +1901,7 @@
         <v>76</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -1900,7 +1920,7 @@
         <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
@@ -1919,7 +1939,7 @@
         <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -1938,7 +1958,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -1951,19 +1971,17 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1978,10 +1996,10 @@
         <v>92</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>94</v>
@@ -1999,13 +2017,13 @@
         <v>92</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2020,13 +2038,13 @@
         <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2041,9 +2059,11 @@
         <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>94</v>
       </c>
@@ -2060,13 +2080,11 @@
         <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2081,10 +2099,10 @@
         <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>83</v>
@@ -2102,10 +2120,10 @@
         <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>83</v>
@@ -2123,10 +2141,10 @@
         <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>83</v>
@@ -2144,13 +2162,13 @@
         <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2165,13 +2183,13 @@
         <v>92</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2186,10 +2204,10 @@
         <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>83</v>
@@ -2207,13 +2225,13 @@
         <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2228,10 +2246,14 @@
         <v>92</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2245,14 +2267,10 @@
         <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
@@ -2266,13 +2284,13 @@
         <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2287,13 +2305,13 @@
         <v>92</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2308,10 +2326,10 @@
         <v>92</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>83</v>
@@ -2329,10 +2347,10 @@
         <v>92</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>83</v>
@@ -2350,30 +2368,27 @@
         <v>92</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="1">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="G59" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -2382,19 +2397,17 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -2403,18 +2416,18 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
@@ -2422,16 +2435,16 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>42</v>
@@ -2443,20 +2456,18 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
@@ -2470,13 +2481,13 @@
         <v>16</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -2491,10 +2502,10 @@
         <v>16</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>40</v>
@@ -2512,13 +2523,13 @@
         <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -2533,13 +2544,13 @@
         <v>16</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -2554,20 +2565,17 @@
         <v>16</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="1">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
@@ -2575,12 +2583,73 @@
         <v>16</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2590,12 +2659,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2770,15 +2836,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2803,18 +2881,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA146E6-E10F-4716-A9E1-CE3E46B6E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571FC5EF-7820-4C1C-87E4-4FE61C21CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="0" windowWidth="12015" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2925" yWindow="0" windowWidth="17565" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="152">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -805,6 +805,25 @@
   </si>
   <si>
     <t>講師側の生徒リスト用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_Delete_UpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師側のfaqの削除、更新用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_delete_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師側のfaqの削除、更新画面jsp</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1210,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G72"/>
+  <dimension ref="B2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1289,7 +1308,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B6" si="0">ROW()-2</f>
+        <f t="shared" ref="B5:B7" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1331,7 +1350,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B72" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1341,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
@@ -1352,7 +1371,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B8:B74" si="1">ROW()-2</f>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1362,13 +1381,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1383,10 +1402,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>40</v>
@@ -1404,10 +1423,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
@@ -1425,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>40</v>
@@ -1446,15 +1465,20 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1462,11 +1486,9 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>83</v>
       </c>
@@ -1483,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>83</v>
@@ -1504,13 +1526,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1525,10 +1547,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>45</v>
@@ -1546,10 +1568,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>45</v>
@@ -1567,27 +1589,34 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1599,16 +1628,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1623,9 +1652,11 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1642,11 +1673,9 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1663,9 +1692,11 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1682,11 +1713,9 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1703,9 +1732,11 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1719,14 +1750,12 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1743,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>41</v>
@@ -1764,9 +1793,11 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>41</v>
       </c>
@@ -1783,11 +1814,9 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1804,9 +1833,11 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1823,11 +1854,9 @@
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1844,9 +1873,11 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1863,7 +1894,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -1879,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -1901,7 +1932,7 @@
         <v>76</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -1920,7 +1951,7 @@
         <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
@@ -1939,7 +1970,7 @@
         <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -1958,7 +1989,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -1977,7 +2008,7 @@
         <v>76</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -1990,19 +2021,17 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2017,10 +2046,10 @@
         <v>92</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>94</v>
@@ -2038,34 +2067,27 @@
         <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2080,11 +2102,13 @@
         <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="G44" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2099,13 +2123,13 @@
         <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2120,13 +2144,11 @@
         <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2141,10 +2163,10 @@
         <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>83</v>
@@ -2162,10 +2184,10 @@
         <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>83</v>
@@ -2183,13 +2205,13 @@
         <v>92</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2204,10 +2226,10 @@
         <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>83</v>
@@ -2225,13 +2247,13 @@
         <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2246,13 +2268,13 @@
         <v>92</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2267,10 +2289,14 @@
         <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
@@ -2284,13 +2310,13 @@
         <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2305,14 +2331,10 @@
         <v>92</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
@@ -2326,13 +2348,13 @@
         <v>92</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2347,13 +2369,13 @@
         <v>92</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -2368,27 +2390,34 @@
         <v>92</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -2403,30 +2432,27 @@
         <v>92</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G60" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="1">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="G61" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -2435,19 +2461,17 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -2456,18 +2480,18 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
@@ -2475,16 +2499,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>42</v>
@@ -2496,20 +2520,18 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
@@ -2523,13 +2545,13 @@
         <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -2544,10 +2566,10 @@
         <v>16</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>40</v>
@@ -2565,17 +2587,20 @@
         <v>16</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
@@ -2583,9 +2608,11 @@
         <v>16</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F69" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>40</v>
       </c>
@@ -2602,20 +2629,17 @@
         <v>16</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
+      <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
@@ -2623,13 +2647,11 @@
         <v>16</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F71" s="2"/>
       <c r="G71" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
@@ -2644,12 +2666,54 @@
         <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2659,9 +2723,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2836,27 +2903,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2881,9 +2936,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571FC5EF-7820-4C1C-87E4-4FE61C21CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6C9C04-BD51-4488-9250-0676AEB0EC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="0" windowWidth="17565" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="7740" yWindow="0" windowWidth="12750" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="210">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -91,16 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面用</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WebContent/WEB-INF/jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -192,10 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Faq_ListServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Question_FillinServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -222,25 +208,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Faq_RegistServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Question_ResponseServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>All_QuestionDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">質問関連のデータアクセス用DAO  </t>
-    <rPh sb="0" eb="4">
-      <t>シツモンカンレン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -333,27 +305,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログアウト用</t>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Create_ProfileServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faq画面用（受講者）</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジュコウシャ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -373,19 +325,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq編集画面用（講師）</t>
-    <rPh sb="3" eb="7">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問記入画面用（受講者）</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -599,9 +538,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name.java</t>
-  </si>
-  <si>
     <t>UserAll_QuestionDaoTest.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,9 +630,6 @@
     <t>profile.jsp</t>
   </si>
   <si>
-    <t>プロフィール画面jsp</t>
-  </si>
-  <si>
     <t>profile2.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -824,6 +757,514 @@
     <rPh sb="13" eb="15">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_Edit_UpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq編集画面用（講師）</t>
+  </si>
+  <si>
+    <t>Faq_LiseServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_UpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
+  </si>
+  <si>
+    <t>ログイン画面用</t>
+  </si>
+  <si>
+    <t>Question_Response_UpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question_UpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者側の生徒リスト用</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All_QuestionDao.javaのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginDao.javaのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileDao.javaのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserAll_QuestionDao.javaのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDao.javaのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserProfileDao.javaのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq登録成功画面用（講師）</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答登録成功画面用（講師）</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_delete_update.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_list_2.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_list.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_fillin.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_response.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師側のfaqの削除、更新画面用css</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答画面用css</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンカイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答記入画面用css</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="8">
+      <t>カイトウキニュウガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問記入画面用css</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>キニュウガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq画面用css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者一覧画面jsp（受講者）</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者一覧画面jsp（講師）</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面jsp（受講者）</t>
+    <rPh sb="12" eb="15">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面jsp（講師）</t>
+    <rPh sb="12" eb="14">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_id.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン用DAO</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">質問・FAQ関連のデータアクセス用DAO  </t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール表示用DAO</t>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール表示のデータ操作モデル</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師側の質問表示データアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師側の質問表示データ操作モデル</t>
+    <rPh sb="0" eb="3">
+      <t>コウシガワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録結果表示画のデータ操作モデル</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名、氏名（かな）のデータ操作モデル</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Table.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページャーのデータ操作モデル</t>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_LiseServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq画面用（受講者）</t>
+    <rPh sb="7" eb="10">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq画面用（講師）</t>
+    <rPh sb="7" eb="9">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_list_t.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_list2_t.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq画面jsp（講師）</t>
+    <rPh sb="9" eb="11">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_DeleteServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_UpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_RegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_Regist_UpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_delete.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_up.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_regist_up.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq登録完了画面jsp（講師）</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq編集完了画面用（講師）</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq削除完了画面用（講師）</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq登録完了画面用（講師）</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq更新完了画面用</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq削除完了画面jsp（講師）</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq登録完了画面jsp（講師）</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq更新完了画面jsp</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -899,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +1354,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G74"/>
+  <dimension ref="B2:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D20"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1266,7 +1710,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B3:B26" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1276,18 +1720,18 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1297,18 +1741,18 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B7" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1318,13 +1762,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1339,13 +1783,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1360,18 +1804,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <f t="shared" ref="B8:B74" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1381,18 +1825,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1402,18 +1846,18 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1423,18 +1867,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1444,18 +1888,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1465,18 +1909,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1486,16 +1930,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1505,18 +1951,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1526,18 +1972,18 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1547,18 +1993,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1568,18 +2014,18 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1589,18 +2035,18 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1610,18 +2056,18 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1631,111 +2077,115 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>41</v>
@@ -1743,42 +2193,44 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B27:B97" si="1">ROW()-2</f>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1790,16 +2242,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1811,14 +2263,16 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1830,16 +2284,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1851,14 +2305,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1870,16 +2326,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1891,14 +2347,16 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1910,14 +2368,16 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1929,14 +2389,16 @@
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1948,14 +2410,16 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G36" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1967,14 +2431,16 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1986,14 +2452,16 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="G38" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -2005,14 +2473,16 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="G39" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -2024,14 +2494,16 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2040,19 +2512,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2061,33 +2533,40 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>151</v>
+        <v>81</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2096,19 +2575,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2117,19 +2596,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2138,17 +2617,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2157,19 +2638,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2178,19 +2659,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2199,19 +2680,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2220,19 +2701,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2241,19 +2722,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2262,19 +2743,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2283,19 +2764,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2304,19 +2785,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2325,16 +2806,20 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
@@ -2342,19 +2827,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2363,19 +2848,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -2384,19 +2869,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -2405,19 +2890,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -2426,33 +2911,40 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -2461,17 +2953,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="G62" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -2480,17 +2974,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G63" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -2499,19 +2995,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -2520,39 +3016,30 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="1">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
@@ -2560,19 +3047,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -2581,19 +3068,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
@@ -2602,19 +3089,19 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
@@ -2623,35 +3110,40 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="G71" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
@@ -2660,19 +3152,19 @@
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
@@ -2681,19 +3173,19 @@
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
@@ -2702,18 +3194,497 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="1"/>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6C9C04-BD51-4488-9250-0676AEB0EC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A4B21B-9CBF-4311-9179-BF3F2ABEE47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="0" windowWidth="12750" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4815" yWindow="0" windowWidth="15675" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="244">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -767,10 +767,6 @@
     <t>faq編集画面用（講師）</t>
   </si>
   <si>
-    <t>Faq_LiseServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Faq_UpServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1092,10 +1088,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Faq_LiseServlet2.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq画面用（受講者）</t>
     <rPh sb="7" eb="10">
       <t>ジュコウシャ</t>
@@ -1265,6 +1257,381 @@
   </si>
   <si>
     <t>header.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangePasswordServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更用サーブレット（受講者）</t>
+    <rPh sb="15" eb="18">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更用サーブレット（講師）</t>
+    <rPh sb="15" eb="17">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_ListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_ListServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyMenuServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyMenuServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイメニュー用サーブレット（受講者）</t>
+    <rPh sb="14" eb="17">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイメニュー用サーブレット（講師）</t>
+    <rPh sb="14" eb="16">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PasswordNoServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PasswordOkServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PasswordOkServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規パスワード失敗サーブレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規パスワード成功サーブレット（受講者）</t>
+    <rPh sb="16" eb="19">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規パスワード成功サーブレット（講師）</t>
+    <rPh sb="16" eb="18">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーjsp（メニューバー無し）</t>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>changepassword.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>changepassword2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>パスワード変更用ページ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（受講者）</t>
+    </r>
+    <rPh sb="15" eb="18">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>パスワード変更用ページ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（講師）</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_edit_up.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq編集完了画面jsp（講師）</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymenu.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymenu2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_no.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_no2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_ok.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_ok2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイメニュー用jsp（受講者）</t>
+    <rPh sb="11" eb="14">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイメニュー用jsp（講師）</t>
+    <rPh sb="11" eb="13">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新規パスワード変更失敗用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（受講者）</t>
+    </r>
+    <rPh sb="16" eb="19">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新規パスワード変更失敗用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（講師）</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新規パスワード変更成功用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（受講者）</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新規パスワード変更成功用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（講師）</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_response_up.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答記入完了画面jsp（講師）</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1272,7 +1639,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1296,8 +1663,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,6 +1694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +1750,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1673,13 +2075,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G97"/>
+  <dimension ref="B2:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
@@ -1688,7 +2090,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1708,9 +2110,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7">
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B26" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B33" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1719,17 +2121,17 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
+      <c r="E3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1740,17 +2142,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
+      <c r="E4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1762,16 +2164,16 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1783,16 +2185,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1804,16 +2206,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1825,16 +2227,16 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1846,16 +2248,16 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1867,16 +2269,16 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1888,16 +2290,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1909,16 +2311,16 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1933,13 +2335,13 @@
         <v>194</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1951,16 +2353,16 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1972,16 +2374,16 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1993,16 +2395,16 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2014,16 +2416,16 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2035,16 +2437,16 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2056,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2077,16 +2479,16 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2098,16 +2500,16 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>213</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2119,16 +2521,16 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
+        <v>214</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2140,16 +2542,16 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2161,16 +2563,16 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>218</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2182,16 +2584,16 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>219</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2203,18 +2605,18 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7">
       <c r="B27" s="1">
-        <f t="shared" ref="B27:B97" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2224,18 +2626,18 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>151</v>
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2245,184 +2647,184 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:B114" si="1">ROW()-2</f>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="1">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7">
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2431,19 +2833,19 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7">
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2452,19 +2854,19 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7">
       <c r="B39" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2473,19 +2875,19 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7">
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2494,19 +2896,19 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7">
       <c r="B41" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2515,19 +2917,19 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7">
       <c r="B42" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2539,16 +2941,16 @@
         <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7">
       <c r="B43" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2560,16 +2962,16 @@
         <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7">
       <c r="B44" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2578,19 +2980,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7">
       <c r="B45" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2599,19 +3001,19 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7">
       <c r="B46" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2620,19 +3022,19 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7">
       <c r="B47" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2641,19 +3043,19 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7">
       <c r="B48" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2662,19 +3064,19 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7">
       <c r="B49" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2683,166 +3085,166 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7">
       <c r="B50" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>142</v>
+        <v>71</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2854,16 +3256,16 @@
         <v>84</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>192</v>
+        <v>224</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7">
       <c r="B58" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2875,16 +3277,16 @@
         <v>84</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>91</v>
+        <v>225</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2896,16 +3298,16 @@
         <v>84</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7">
       <c r="B60" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2917,16 +3319,16 @@
         <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2938,16 +3340,16 @@
         <v>84</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>201</v>
+        <v>141</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2959,16 +3361,16 @@
         <v>84</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7">
       <c r="B63" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2980,16 +3382,16 @@
         <v>84</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -3001,16 +3403,16 @@
         <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7">
       <c r="B65" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -3022,26 +3424,37 @@
         <v>84</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+    <row r="66" spans="2:7">
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -3053,16 +3466,16 @@
         <v>84</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -3074,16 +3487,16 @@
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -3095,16 +3508,16 @@
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3116,16 +3529,16 @@
         <v>84</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3137,16 +3550,16 @@
         <v>84</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7">
       <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3158,16 +3571,16 @@
         <v>84</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3179,16 +3592,16 @@
         <v>84</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3200,16 +3613,16 @@
         <v>84</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7">
       <c r="B75" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3221,16 +3634,16 @@
         <v>84</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7">
       <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3242,16 +3655,16 @@
         <v>84</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7">
       <c r="B77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3263,16 +3676,16 @@
         <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7">
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3284,16 +3697,16 @@
         <v>84</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7">
       <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3302,387 +3715,744 @@
         <v>16</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B88" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B91" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B92" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B93" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B94" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7">
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="1">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="1">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="1">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="1">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="1">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="1">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="1">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3694,12 +4464,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3874,15 +4641,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3907,18 +4686,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A4B21B-9CBF-4311-9179-BF3F2ABEE47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845F0EE-6F4F-4272-8A6B-0215204E9D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="0" windowWidth="15675" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="5295" yWindow="0" windowWidth="15195" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="263">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -864,10 +864,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq_list_2.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq_list.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1106,10 +1102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq_list2_t.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq画面jsp（講師）</t>
     <rPh sb="9" eb="11">
       <t>コウシ</t>
@@ -1317,10 +1309,6 @@
   </si>
   <si>
     <t>PasswordOkServlet2.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規パスワード失敗サーブレット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1631,6 +1619,176 @@
     <t>質問回答記入完了画面jsp（講師）</t>
     <rPh sb="6" eb="8">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangePasswordServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faq_ListServlet3.java</t>
+  </si>
+  <si>
+    <t>Faq_ListServlet4.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>faq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一覧ページ用（受講者）</t>
+    </r>
+    <rPh sb="10" eb="13">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>faq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一覧ページ用（講師）</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PasswordNoServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規パスワード失敗サーブレット（受講者）</t>
+    <rPh sb="16" eb="19">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規パスワード失敗サーブレット（講師）</t>
+    <rPh sb="16" eb="18">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question_AnswerServlet2.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回答画面用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>changepassword.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>パスワード変更ページ用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>css</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_list2.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付用css</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジュヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mymenu.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイメニュー用css</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_response.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_list_t2.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq画面jsp（受講者）</t>
+    <rPh sb="9" eb="12">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付用jsp</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヅケヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1733,7 +1891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1759,6 +1917,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2075,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G114"/>
+  <dimension ref="B2:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2112,7 +2276,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B33" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B37" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2122,10 +2286,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>38</v>
@@ -2143,10 +2307,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>38</v>
@@ -2227,10 +2391,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>86</v>
@@ -2251,7 +2415,7 @@
         <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>36</v>
@@ -2290,10 +2454,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>86</v>
@@ -2311,10 +2475,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>41</v>
@@ -2332,13 +2496,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>202</v>
+        <v>242</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -2353,10 +2517,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>243</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
@@ -2377,7 +2541,7 @@
         <v>192</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>86</v>
@@ -2395,13 +2559,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -2416,10 +2580,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>86</v>
@@ -2437,13 +2601,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -2458,13 +2622,13 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -2479,13 +2643,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -2500,10 +2664,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>215</v>
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>38</v>
@@ -2521,10 +2685,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>216</v>
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>38</v>
@@ -2542,10 +2706,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>38</v>
@@ -2563,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>38</v>
@@ -2584,10 +2748,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>38</v>
@@ -2605,13 +2769,13 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>246</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -2626,13 +2790,13 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>216</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -2647,13 +2811,13 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -2668,13 +2832,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -2689,10 +2853,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>36</v>
@@ -2710,13 +2874,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>52</v>
+        <v>249</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -2731,13 +2895,13 @@
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -2752,18 +2916,18 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="1">
-        <f t="shared" ref="B34:B114" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2773,18 +2937,18 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2794,76 +2958,76 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>138</v>
+        <v>32</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B38:B123" si="1">ROW()-2</f>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -2875,16 +3039,16 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>179</v>
+        <v>131</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -2899,10 +3063,10 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>37</v>
@@ -2920,10 +3084,10 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>37</v>
@@ -2938,13 +3102,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>37</v>
@@ -2959,13 +3123,13 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>37</v>
@@ -2980,13 +3144,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>37</v>
@@ -3001,13 +3165,13 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>37</v>
@@ -3025,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>37</v>
@@ -3046,10 +3210,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>37</v>
@@ -3067,10 +3231,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>37</v>
@@ -3088,10 +3252,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>37</v>
@@ -3109,10 +3273,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>37</v>
@@ -3127,13 +3291,13 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>37</v>
@@ -3148,13 +3312,13 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>37</v>
@@ -3169,13 +3333,13 @@
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>37</v>
@@ -3190,13 +3354,13 @@
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>37</v>
@@ -3214,10 +3378,10 @@
         <v>69</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>37</v>
@@ -3235,10 +3399,10 @@
         <v>69</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>37</v>
@@ -3250,19 +3414,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>226</v>
+        <v>72</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -3271,19 +3435,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>227</v>
+        <v>82</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -3292,19 +3456,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -3313,19 +3477,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -3340,10 +3504,10 @@
         <v>84</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>142</v>
+        <v>221</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>76</v>
@@ -3361,13 +3525,13 @@
         <v>84</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -3382,10 +3546,10 @@
         <v>84</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>86</v>
@@ -3403,13 +3567,13 @@
         <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -3424,10 +3588,10 @@
         <v>84</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>190</v>
+        <v>141</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>76</v>
@@ -3445,10 +3609,10 @@
         <v>84</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>86</v>
@@ -3466,13 +3630,13 @@
         <v>84</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -3487,13 +3651,13 @@
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:7">
@@ -3508,13 +3672,13 @@
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -3529,10 +3693,10 @@
         <v>84</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>76</v>
@@ -3550,10 +3714,10 @@
         <v>84</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>86</v>
@@ -3571,10 +3735,10 @@
         <v>84</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>86</v>
@@ -3592,13 +3756,13 @@
         <v>84</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -3613,10 +3777,10 @@
         <v>84</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>76</v>
@@ -3634,13 +3798,13 @@
         <v>84</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -3655,13 +3819,13 @@
         <v>84</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -3676,13 +3840,13 @@
         <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -3697,10 +3861,10 @@
         <v>84</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>76</v>
@@ -3718,10 +3882,10 @@
         <v>84</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>76</v>
@@ -3739,10 +3903,10 @@
         <v>84</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>236</v>
+        <v>205</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>76</v>
@@ -3760,13 +3924,13 @@
         <v>84</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>237</v>
+        <v>101</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:7">
@@ -3781,10 +3945,10 @@
         <v>84</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>238</v>
+        <v>103</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>76</v>
@@ -3802,10 +3966,10 @@
         <v>84</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>239</v>
+        <v>104</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>76</v>
@@ -3823,10 +3987,10 @@
         <v>84</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>240</v>
+        <v>227</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>76</v>
@@ -3844,10 +4008,10 @@
         <v>84</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>76</v>
@@ -3865,13 +4029,13 @@
         <v>84</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>171</v>
+        <v>229</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="2:7">
@@ -3886,13 +4050,13 @@
         <v>84</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>172</v>
+        <v>230</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="2:7">
@@ -3907,13 +4071,13 @@
         <v>84</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>110</v>
+        <v>231</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="2:7">
@@ -3928,13 +4092,13 @@
         <v>84</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>112</v>
+        <v>232</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="2:7">
@@ -3949,13 +4113,13 @@
         <v>84</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="2:7">
@@ -3970,13 +4134,13 @@
         <v>84</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -3991,13 +4155,13 @@
         <v>84</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -4012,13 +4176,13 @@
         <v>84</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="2:7">
@@ -4033,13 +4197,13 @@
         <v>84</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="2:7">
@@ -4054,10 +4218,10 @@
         <v>84</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>76</v>
@@ -4072,16 +4236,16 @@
         <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="2:7">
@@ -4090,19 +4254,19 @@
         <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="2:7">
@@ -4111,18 +4275,20 @@
         <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="1">
@@ -4130,17 +4296,19 @@
         <v>97</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="G99" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="2:7">
@@ -4149,17 +4317,19 @@
         <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="G100" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="2:7">
@@ -4168,19 +4338,19 @@
         <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -4189,16 +4359,16 @@
         <v>100</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>159</v>
+        <v>42</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>38</v>
@@ -4210,20 +4380,18 @@
         <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="1">
@@ -4231,17 +4399,15 @@
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="1" t="s">
         <v>36</v>
       </c>
@@ -4252,19 +4418,17 @@
         <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="2:7">
@@ -4273,17 +4437,15 @@
         <v>104</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="1" t="s">
         <v>36</v>
       </c>
@@ -4300,13 +4462,13 @@
         <v>15</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>65</v>
+        <v>251</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="2:7">
@@ -4321,13 +4483,13 @@
         <v>15</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="2:7">
@@ -4342,13 +4504,13 @@
         <v>15</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>66</v>
+        <v>159</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="2:7">
@@ -4363,10 +4525,10 @@
         <v>15</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>36</v>
@@ -4384,7 +4546,7 @@
         <v>15</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>167</v>
@@ -4405,10 +4567,10 @@
         <v>15</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>38</v>
@@ -4426,13 +4588,13 @@
         <v>15</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>166</v>
+        <v>57</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="2:7">
@@ -4447,13 +4609,202 @@
         <v>15</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="1">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="1">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="1">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="1">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="1">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
+++ b/documents/ファイル構成一覧表_#かけだしエンジニア.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845F0EE-6F4F-4272-8A6B-0215204E9D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD7C1E9-6CF2-41F9-9035-487E5DDAF0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5295" yWindow="0" windowWidth="15195" windowHeight="10845" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="259">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -422,10 +422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>profile2.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>question_list.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -726,10 +722,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>question_answer.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Question_UpServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -860,10 +852,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq_delete_update.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>faq_list.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -873,23 +861,6 @@
   </si>
   <si>
     <t>question_response.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講師側のfaqの削除、更新画面用css</t>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問回答画面用css</t>
-    <rPh sb="0" eb="4">
-      <t>シツモンカイトウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1735,10 +1706,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>faq_list2.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>time.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1756,17 +1723,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mymenu.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイメニュー用css</t>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>question_response.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1790,6 +1746,25 @@
     <rPh sb="0" eb="3">
       <t>ヒヅケヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_profile.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq_regist.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_fillin.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2239,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G123"/>
+  <dimension ref="B2:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69:G70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2286,10 +2261,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>38</v>
@@ -2307,10 +2282,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>38</v>
@@ -2370,10 +2345,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>38</v>
@@ -2391,13 +2366,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -2412,10 +2387,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>36</v>
@@ -2436,10 +2411,10 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -2454,13 +2429,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -2475,10 +2450,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>41</v>
@@ -2496,10 +2471,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>41</v>
@@ -2517,10 +2492,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
@@ -2538,13 +2513,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -2559,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>49</v>
@@ -2580,13 +2555,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -2601,10 +2576,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>36</v>
@@ -2625,10 +2600,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -2646,10 +2621,10 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -2706,10 +2681,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>38</v>
@@ -2727,10 +2702,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>38</v>
@@ -2748,10 +2723,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>38</v>
@@ -2769,10 +2744,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>38</v>
@@ -2790,10 +2765,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>38</v>
@@ -2811,10 +2786,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>38</v>
@@ -2874,10 +2849,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>37</v>
@@ -2937,10 +2912,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>36</v>
@@ -2979,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>52</v>
@@ -3000,10 +2975,10 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>36</v>
@@ -3011,7 +2986,7 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="1">
-        <f t="shared" ref="B38:B123" si="1">ROW()-2</f>
+        <f t="shared" ref="B38:B121" si="1">ROW()-2</f>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3021,13 +2996,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -3042,13 +3017,13 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -3066,7 +3041,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>37</v>
@@ -3084,10 +3059,10 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>37</v>
@@ -3105,10 +3080,10 @@
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>37</v>
@@ -3126,10 +3101,10 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>37</v>
@@ -3147,10 +3122,10 @@
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>37</v>
@@ -3168,10 +3143,10 @@
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>37</v>
@@ -3210,10 +3185,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>37</v>
@@ -3231,10 +3206,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>37</v>
@@ -3252,10 +3227,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>37</v>
@@ -3276,7 +3251,7 @@
         <v>55</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>37</v>
@@ -3294,10 +3269,10 @@
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>37</v>
@@ -3315,10 +3290,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>37</v>
@@ -3336,10 +3311,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>37</v>
@@ -3357,10 +3332,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>37</v>
@@ -3375,13 +3350,13 @@
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>37</v>
@@ -3396,13 +3371,13 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>37</v>
@@ -3417,13 +3392,13 @@
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>37</v>
@@ -3438,13 +3413,13 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>37</v>
@@ -3459,13 +3434,13 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>37</v>
@@ -3480,13 +3455,13 @@
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>37</v>
@@ -3501,16 +3476,16 @@
         <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="2:7">
@@ -3522,16 +3497,16 @@
         <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -3543,16 +3518,16 @@
         <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -3564,16 +3539,16 @@
         <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -3585,16 +3560,16 @@
         <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -3606,16 +3581,16 @@
         <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -3627,16 +3602,16 @@
         <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -3648,16 +3623,16 @@
         <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="2:7">
@@ -3669,16 +3644,16 @@
         <v>16</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -3690,16 +3665,16 @@
         <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="2:7">
@@ -3711,16 +3686,16 @@
         <v>16</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="2:7">
@@ -3732,16 +3707,16 @@
         <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="2:7">
@@ -3753,16 +3728,16 @@
         <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -3774,16 +3749,16 @@
         <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:7">
@@ -3795,16 +3770,16 @@
         <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -3816,16 +3791,16 @@
         <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -3837,16 +3812,16 @@
         <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -3858,16 +3833,16 @@
         <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -3879,16 +3854,16 @@
         <v>16</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="2:7">
@@ -3900,16 +3875,16 @@
         <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="2:7">
@@ -3921,16 +3896,16 @@
         <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="2:7">
@@ -3942,16 +3917,16 @@
         <v>16</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="2:7">
@@ -3963,16 +3938,16 @@
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:7">
@@ -3984,16 +3959,16 @@
         <v>16</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="2:7">
@@ -4005,16 +3980,16 @@
         <v>16</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="2:7">
@@ -4026,16 +4001,16 @@
         <v>16</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="2:7">
@@ -4047,16 +4022,16 @@
         <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="2:7">
@@ -4068,16 +4043,16 @@
         <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="2:7">
@@ -4089,16 +4064,16 @@
         <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="2:7">
@@ -4110,16 +4085,16 @@
         <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="2:7">
@@ -4131,16 +4106,16 @@
         <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -4152,16 +4127,16 @@
         <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -4173,16 +4148,16 @@
         <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="2:7">
@@ -4194,16 +4169,16 @@
         <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="2:7">
@@ -4215,16 +4190,16 @@
         <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="2:7">
@@ -4236,16 +4211,16 @@
         <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="2:7">
@@ -4257,16 +4232,16 @@
         <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="2:7">
@@ -4278,16 +4253,16 @@
         <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="2:7">
@@ -4299,16 +4274,16 @@
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="2:7">
@@ -4323,10 +4298,10 @@
         <v>11</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>38</v>
@@ -4344,10 +4319,10 @@
         <v>11</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>36</v>
@@ -4405,9 +4380,11 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F104" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="G104" s="1" t="s">
         <v>36</v>
       </c>
@@ -4424,9 +4401,11 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F105" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="G105" s="1" t="s">
         <v>36</v>
       </c>
@@ -4443,9 +4422,11 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F106" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="G106" s="1" t="s">
         <v>36</v>
       </c>
@@ -4456,19 +4437,19 @@
         <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>252</v>
+        <v>168</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="2:7">
@@ -4477,19 +4458,19 @@
         <v>106</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="2:7">
@@ -4498,19 +4479,19 @@
         <v>107</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>163</v>
+        <v>250</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="2:7">
@@ -4525,13 +4506,13 @@
         <v>15</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>167</v>
+        <v>246</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="2:7">
@@ -4546,13 +4527,13 @@
         <v>15</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="2:7">
@@ -4567,13 +4548,13 @@
         <v>15</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>63</v>
+        <v>157</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="2:7">
@@ -4588,13 +4569,13 @@
         <v>15</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="2:7">
@@ -4609,13 +4590,13 @@
         <v>15</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="2:7">
@@ -4630,13 +4611,13 @@
         <v>15</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>256</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="2:7">
@@ -4654,7 +4635,7 @@
         <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>36</v>
@@ -4672,10 +4653,10 @@
         <v>15</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>66</v>
+        <v>158</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>36</v>
@@ -4693,13 +4674,13 @@
         <v>15</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>164</v>
+        <v>60</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="2:7">
@@ -4714,13 +4695,13 @@
         <v>15</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="2:7">
@@ -4756,54 +4737,12 @@
         <v>15</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>165</v>
+        <v>248</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" s="1">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G123" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4815,9 +4754,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4992,27 +4934,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5037,9 +4967,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>